--- a/Category.xlsx
+++ b/Category.xlsx
@@ -31,7 +31,7 @@
     <x:t>Seq</x:t>
   </x:si>
   <x:si>
-    <x:t>2e95dc37-bc9a-493e-9831-db908ef37a10</x:t>
+    <x:t>9433e2fb-5075-44b6-bbe1-06aac04dc2fb</x:t>
   </x:si>
   <x:si>
     <x:t>檢驗所新聞</x:t>

--- a/Category.xlsx
+++ b/Category.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8" count="8">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14" count="14">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -31,13 +31,31 @@
     <x:t>Seq</x:t>
   </x:si>
   <x:si>
-    <x:t>9433e2fb-5075-44b6-bbe1-06aac04dc2fb</x:t>
+    <x:t>2b8ba87b-7887-4e91-9679-3a6ffa956b2c</x:t>
   </x:si>
   <x:si>
     <x:t>檢驗所新聞</x:t>
   </x:si>
   <x:si>
     <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>79b4eb7d-cff1-47b3-96f9-b985346b134c</x:t>
+  </x:si>
+  <x:si>
+    <x:t>特惠消息</x:t>
+  </x:si>
+  <x:si>
+    <x:t>e01c95a2-19dd-4d4e-8471-68fa9fb7fda0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>健康新知</x:t>
+  </x:si>
+  <x:si>
+    <x:t>99dd2e53-1385-4903-9f69-7183c8cc0d11</x:t>
+  </x:si>
+  <x:si>
+    <x:t>醫學檢驗 A to Z</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -434,6 +452,57 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="n">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="n">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Category.xlsx
+++ b/Category.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14" count="14">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20" count="20">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -31,7 +31,19 @@
     <x:t>Seq</x:t>
   </x:si>
   <x:si>
-    <x:t>2b8ba87b-7887-4e91-9679-3a6ffa956b2c</x:t>
+    <x:t>InitUID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>InitDT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ModifiedUID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ModifiedDT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>b2ef1efa-c4c2-4897-bf3d-28218b0f4078</x:t>
   </x:si>
   <x:si>
     <x:t>檢驗所新聞</x:t>
@@ -40,19 +52,25 @@
     <x:t/>
   </x:si>
   <x:si>
-    <x:t>79b4eb7d-cff1-47b3-96f9-b985346b134c</x:t>
+    <x:t>BD3A1EFC-17FD-4EC7-8E8D-F7926E30268C</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2020-06-02 11:20:03.930</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1d5b3a41-a0c9-4872-8857-a014ee07c64d</x:t>
   </x:si>
   <x:si>
     <x:t>特惠消息</x:t>
   </x:si>
   <x:si>
-    <x:t>e01c95a2-19dd-4d4e-8471-68fa9fb7fda0</x:t>
+    <x:t>5030158d-bc73-4667-aee2-2dcc2881fa03</x:t>
   </x:si>
   <x:si>
     <x:t>健康新知</x:t>
   </x:si>
   <x:si>
-    <x:t>99dd2e53-1385-4903-9f69-7183c8cc0d11</x:t>
+    <x:t>400cd519-80b2-450a-86db-51f43acc6bd2</x:t>
   </x:si>
   <x:si>
     <x:t>醫學檢驗 A to Z</x:t>
@@ -418,7 +436,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
+    <x:row r="1" spans="1:9">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -434,16 +452,28 @@
       <x:c r="E1" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
+      <x:c r="F1" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G1" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:5">
+    <x:row r="2" spans="1:9">
       <x:c r="A2" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D2" s="0" t="n">
         <x:v>1</x:v>
@@ -451,16 +481,28 @@
       <x:c r="E2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
+      <x:c r="F2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
     </x:row>
-    <x:row r="3" spans="1:5">
+    <x:row r="3" spans="1:9">
       <x:c r="A3" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D3" s="0" t="n">
         <x:v>1</x:v>
@@ -468,16 +510,28 @@
       <x:c r="E3" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
     </x:row>
-    <x:row r="4" spans="1:5">
+    <x:row r="4" spans="1:9">
       <x:c r="A4" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
         <x:v>11</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>7</x:v>
       </x:c>
       <x:c r="D4" s="0" t="n">
         <x:v>1</x:v>
@@ -485,22 +539,46 @@
       <x:c r="E4" s="0" t="n">
         <x:v>2</x:v>
       </x:c>
+      <x:c r="F4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
     </x:row>
-    <x:row r="5" spans="1:5">
+    <x:row r="5" spans="1:9">
       <x:c r="A5" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="D5" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
       <x:c r="E5" s="0" t="n">
         <x:v>3</x:v>
+      </x:c>
+      <x:c r="F5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="G5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>13</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
